--- a/资料/红星美凯龙/功能列表.xlsx
+++ b/资料/红星美凯龙/功能列表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13800" yWindow="460" windowWidth="28800" windowHeight="16020" tabRatio="500"/>
+    <workbookView xWindow="12640" yWindow="740" windowWidth="28800" windowHeight="16020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
   <si>
     <t>模块</t>
     <rPh sb="0" eb="1">
@@ -200,45 +200,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>游戏看需求进行拓展</t>
-    <rPh sb="0" eb="1">
-      <t>you'x</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>kan</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>xu'qiu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>jin'x</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>tuo'z</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>咨询</t>
-    <rPh sb="0" eb="1">
-      <t>zi'xuxn</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文章发布、管理</t>
-    <rPh sb="0" eb="1">
-      <t>wen'z</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fa'bu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>guan'li</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>券包管理</t>
     <rPh sb="0" eb="1">
       <t>quan</t>
@@ -594,29 +555,77 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>新闻</t>
-    <rPh sb="0" eb="1">
-      <t>xin'wen</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>类目管理</t>
-    <rPh sb="0" eb="1">
-      <t>lei'mu</t>
+    <t>停车系统</t>
+    <rPh sb="0" eb="1">
+      <t>ting'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xi'togn</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与硬件打通</t>
+    <rPh sb="0" eb="1">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ying'jian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>da'togn</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>车位管理、锁定</t>
+    <rPh sb="0" eb="1">
+      <t>che'wei</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>guan'li</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文章增删改查管理</t>
-    <rPh sb="0" eb="1">
-      <t>wen'z</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zeng'shan'gai'c</t>
+    <rPh sb="5" eb="6">
+      <t>suo'dign</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付流程打通</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liu'c</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>da'togn</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员体系打通</t>
+    <rPh sb="0" eb="1">
+      <t>hui'yuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ti'x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>da'togn</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息推送渠道管理</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tui's</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qu'dao</t>
     </rPh>
     <rPh sb="6" eb="7">
       <t>guan'li</t>
@@ -624,84 +633,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>停车系统</t>
-    <rPh sb="0" eb="1">
-      <t>ting'c</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xi'togn</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与硬件打通</t>
-    <rPh sb="0" eb="1">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ying'jian</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>da'togn</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>车位管理、锁定</t>
-    <rPh sb="0" eb="1">
-      <t>che'wei</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>guan'li</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>suo'dign</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付流程打通</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'f</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>liu'c</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>da'togn</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员体系打通</t>
-    <rPh sb="0" eb="1">
-      <t>hui'yuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ti'x</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>da'togn</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息推送渠道管理</t>
-    <rPh sb="0" eb="1">
-      <t>xiao'x</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>tui's</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>qu'dao</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>guan'li</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>业务</t>
     <rPh sb="0" eb="1">
       <t>ye'wu</t>
@@ -822,6 +753,250 @@
     </rPh>
     <rPh sb="23" eb="24">
       <t>dign'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼团</t>
+    <rPh sb="0" eb="1">
+      <t>pin'taun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
+    <rPh sb="0" eb="1">
+      <t>lie'biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成为团长</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'wei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tuan'zhang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼团</t>
+    <rPh sb="0" eb="1">
+      <t>pin't</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺</t>
+    <rPh sb="0" eb="1">
+      <t>diang'pu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺管理</t>
+    <rPh sb="0" eb="1">
+      <t>dian'pu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan'li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这块需求不明确</t>
+    <rPh sb="0" eb="1">
+      <t>zhe'kuai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ming'que</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼团流程管理</t>
+    <rPh sb="0" eb="1">
+      <t>pin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liu'c</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guan'li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼团订单管</t>
+    <rPh sb="0" eb="1">
+      <t>pin't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding'dan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺</t>
+    <rPh sb="0" eb="1">
+      <t>dian'pu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺管理</t>
+    <rPh sb="0" eb="1">
+      <t>dian'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan'li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺结算管理</t>
+    <rPh sb="0" eb="1">
+      <t>dina'pu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'suan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guan'li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳一跳、踩滑板等小游戏</t>
+    <rPh sb="0" eb="1">
+      <t>tiao'yi'tiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cai'hua'ban</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao'you'xi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒杀</t>
+    <rPh sb="0" eb="1">
+      <t>miao'sha</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒杀流程接入电商基本体系</t>
+    <rPh sb="0" eb="1">
+      <t>miao's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liu'c</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie'ru</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dian's</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ji'ben</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ti'x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍价</t>
+    <rPh sb="0" eb="1">
+      <t>kna'jia</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍价接入电商基本体系</t>
+    <rPh sb="0" eb="1">
+      <t>kan'jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'ru</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dian's</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji'ben</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ti'x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒杀设置</t>
+    <rPh sb="0" eb="1">
+      <t>miao'sha</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>she'z</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒杀订单管理</t>
+    <rPh sb="0" eb="1">
+      <t>miao's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding'dan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guan'li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍价</t>
+    <rPh sb="0" eb="1">
+      <t>kan'jia</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍价设置</t>
+    <rPh sb="0" eb="1">
+      <t>kan'jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>she'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍价订单管理</t>
+    <rPh sb="0" eb="1">
+      <t>kan'jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dign'dna</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guan'li</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -872,7 +1047,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -895,22 +1070,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -919,8 +1125,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1199,15 +1429,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="111" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.6640625" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="21.6640625" style="1"/>
+    <col min="1" max="2" width="21.6640625" style="1"/>
+    <col min="3" max="3" width="29.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
     <col min="5" max="5" width="32.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="21.6640625" style="1"/>
@@ -1215,449 +1446,566 @@
   <sheetData>
     <row r="1" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+      <c r="C21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+      <c r="B46" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="9"/>
+      <c r="B48" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="9"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="9"/>
+      <c r="B50" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="9"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="9"/>
+      <c r="B52" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5" t="s">
+      <c r="C52" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="A20:A41"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="B20:B24"/>
+  <mergeCells count="18">
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="A25:A52"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A2:A24"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
